--- a/Document/UI 시안/미션 UI 기획서.xlsx
+++ b/Document/UI 시안/미션 UI 기획서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\강동민\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\UI 시안\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -246,10 +246,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>미션 번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>미션 아이콘</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -263,10 +259,6 @@
   </si>
   <si>
     <t>보상 이름, 내용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 선택 3가지 항목중 몇번째인지 표시해주는 내용</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -420,6 +412,14 @@
   <si>
     <t>미션을 시작, 끝, 진행도 를 표시해주는 내용
 예시 섬멸 미션: 미션 시작, 남은 몬스터 N마리!, 미션 완료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 적용된 미션의 이름</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -703,10 +703,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1166,13 +1166,8 @@
               <a:pPr algn="ctr"/>
               <a:r>
                 <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-                <a:t>미션 </a:t>
+                <a:t>미션 이름</a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>1</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1280,10 +1275,20 @@
                 <a:t>미션 </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>1</a:t>
+                <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>이름</a:t>
               </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+                <a:effectLst/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1391,10 +1396,20 @@
                 <a:t>미션 </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>1</a:t>
+                <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>이름</a:t>
               </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+                <a:effectLst/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2148,7 +2163,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>미션 선택 번호</a:t>
+            <a:t>미션 이름</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4199,10 +4214,10 @@
         <v>43664</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -4324,8 +4339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P85" sqref="P85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4634,7 +4649,7 @@
       <c r="Q19" s="13"/>
       <c r="R19" s="14"/>
       <c r="U19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
@@ -4653,7 +4668,7 @@
       <c r="Q20" s="13"/>
       <c r="R20" s="14"/>
       <c r="U20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.3">
@@ -4691,7 +4706,7 @@
       <c r="Q22" s="13"/>
       <c r="R22" s="14"/>
       <c r="U22" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
@@ -4877,7 +4892,7 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="14"/>
       <c r="U36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="5:21" x14ac:dyDescent="0.3">
@@ -5187,7 +5202,7 @@
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.3">
@@ -5195,25 +5210,25 @@
         <v>26</v>
       </c>
       <c r="O60" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="P60" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="P60" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="28"/>
-      <c r="U60" s="24" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O61" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P61" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q61" s="27"/>
       <c r="R61" s="27"/>
@@ -5223,10 +5238,10 @@
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O62" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P62" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q62" s="27"/>
       <c r="R62" s="27"/>
@@ -5235,22 +5250,22 @@
       <c r="U62" s="6"/>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="28"/>
+      <c r="D67" s="29"/>
       <c r="E67" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="28" t="s">
+      <c r="F67" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
       <c r="K67" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>30</v>
@@ -5262,17 +5277,17 @@
       </c>
       <c r="D68" s="27"/>
       <c r="E68" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
       <c r="J68" s="27"/>
       <c r="K68" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L68" s="6"/>
     </row>
@@ -5282,17 +5297,17 @@
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
       <c r="J69" s="27"/>
       <c r="K69" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L69" s="6"/>
     </row>
@@ -5302,17 +5317,17 @@
       </c>
       <c r="D70" s="27"/>
       <c r="E70" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
       <c r="J70" s="27"/>
       <c r="K70" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L70" s="6"/>
     </row>
@@ -5322,17 +5337,17 @@
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F71" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
       <c r="J71" s="27"/>
       <c r="K71" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L71" s="6"/>
     </row>
@@ -5342,28 +5357,28 @@
       </c>
     </row>
     <row r="81" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="28"/>
+      <c r="D81" s="29"/>
       <c r="E81" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F81" s="28" t="s">
+      <c r="F81" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
       <c r="K81" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="L81" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L81" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="29"/>
     </row>
     <row r="82" spans="3:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="27">
@@ -5374,17 +5389,17 @@
         <v>33</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
       <c r="J82" s="27"/>
       <c r="K82" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L82" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M82" s="27"/>
       <c r="N82" s="27"/>
@@ -5395,22 +5410,22 @@
       </c>
     </row>
     <row r="101" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D101" s="28"/>
+      <c r="D101" s="29"/>
       <c r="E101" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F101" s="28" t="s">
+      <c r="F101" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
       <c r="K101" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L101" s="20" t="s">
         <v>41</v>
@@ -5422,7 +5437,7 @@
       </c>
       <c r="D102" s="27"/>
       <c r="E102" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F102" s="27" t="s">
         <v>42</v>
@@ -5432,7 +5447,7 @@
       <c r="I102" s="27"/>
       <c r="J102" s="27"/>
       <c r="K102" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L102" s="18"/>
     </row>
@@ -5452,7 +5467,7 @@
       <c r="I103" s="27"/>
       <c r="J103" s="27"/>
       <c r="K103" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L103" s="18"/>
     </row>
@@ -5462,22 +5477,22 @@
       </c>
     </row>
     <row r="121" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C121" s="29" t="s">
+      <c r="C121" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D121" s="28"/>
+      <c r="D121" s="29"/>
       <c r="E121" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F121" s="28" t="s">
+      <c r="F121" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G121" s="28"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="28"/>
-      <c r="J121" s="28"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
       <c r="K121" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L121" s="20" t="s">
         <v>30</v>
@@ -5489,17 +5504,17 @@
       </c>
       <c r="D122" s="27"/>
       <c r="E122" s="5" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F122" s="27" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
       <c r="J122" s="27"/>
       <c r="K122" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L122" s="18"/>
     </row>
@@ -5509,17 +5524,17 @@
       </c>
       <c r="D123" s="27"/>
       <c r="E123" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F123" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
       <c r="J123" s="27"/>
       <c r="K123" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L123" s="18"/>
     </row>
@@ -5529,17 +5544,17 @@
       </c>
       <c r="D124" s="27"/>
       <c r="E124" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F124" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
       <c r="J124" s="27"/>
       <c r="K124" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L124" s="18"/>
     </row>
@@ -5549,17 +5564,17 @@
       </c>
       <c r="D125" s="27"/>
       <c r="E125" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F125" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
       <c r="J125" s="27"/>
       <c r="K125" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L125" s="18"/>
     </row>
@@ -5569,17 +5584,17 @@
       </c>
       <c r="D126" s="27"/>
       <c r="E126" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F126" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
       <c r="J126" s="27"/>
       <c r="K126" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L126" s="18"/>
     </row>
@@ -5589,45 +5604,22 @@
       </c>
       <c r="D127" s="27"/>
       <c r="E127" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F127" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
       <c r="J127" s="27"/>
       <c r="K127" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L127" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="F124:J124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="F126:J126"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="F121:J121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="F122:J122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="F123:J123"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="F102:J102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="F103:J103"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:J71"/>
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="F127:J127"/>
     <mergeCell ref="L81:N81"/>
@@ -5644,6 +5636,29 @@
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="F70:J70"/>
     <mergeCell ref="C81:D81"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="F102:J102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="F103:J103"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="F121:J121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="F122:J122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="F123:J123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="F124:J124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="F126:J126"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/UI 시안/미션 UI 기획서.xlsx
+++ b/Document/UI 시안/미션 UI 기획서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\UI 시안\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\UI 시안\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -703,10 +703,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -771,7 +771,7 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>8</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>38070</xdr:rowOff>
@@ -779,21 +779,20 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>113207</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>195263</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="직선 연결선 5"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="80" idx="3"/>
           <a:endCxn id="4" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12182483" y="714345"/>
-          <a:ext cx="1362067" cy="913337"/>
+          <a:off x="10810883" y="714345"/>
+          <a:ext cx="2733667" cy="1624043"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -854,110 +853,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="직사각형 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4848224" y="1828801"/>
-          <a:ext cx="4810126" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>미션 상황 표시</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2679</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="직선 연결선 30"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="30" idx="3"/>
-          <a:endCxn id="34" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9658350" y="2143126"/>
-          <a:ext cx="3906931" cy="1259978"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -998,491 +893,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>672634</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="46" name="그룹 45"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1866900" y="6600825"/>
-          <a:ext cx="10302409" cy="4800600"/>
-          <a:chOff x="1866900" y="6600825"/>
-          <a:chExt cx="7705725" cy="3762375"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="직사각형 34"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1866900" y="6600825"/>
-            <a:ext cx="7705725" cy="3762375"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="dk1">
-              <a:alpha val="51000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="36" name="그룹 35"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="2819400" y="7553325"/>
-            <a:ext cx="1504950" cy="1710170"/>
-            <a:chOff x="1514475" y="8429625"/>
-            <a:chExt cx="1504950" cy="1710170"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="37" name="직사각형 36"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1514475" y="8429625"/>
-              <a:ext cx="1504950" cy="1710170"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-                <a:t>미션내용 </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            </a:p>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-                <a:t>보상</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="38" name="직사각형 37"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1914525" y="8486775"/>
-              <a:ext cx="695325" cy="342900"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-                <a:t>미션 이름</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="39" name="그룹 38"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4991100" y="7553325"/>
-            <a:ext cx="1504950" cy="1710170"/>
-            <a:chOff x="1514475" y="8429625"/>
-            <a:chExt cx="1504950" cy="1710170"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="40" name="직사각형 39"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1514475" y="8429625"/>
-              <a:ext cx="1504950" cy="1710170"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-                <a:t>미션내용 </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            </a:p>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-                <a:t>보상</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="41" name="직사각형 40"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1914525" y="8486775"/>
-              <a:ext cx="695325" cy="342900"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-                <a:t>미션 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>이름</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="42" name="그룹 41"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="7115175" y="7553325"/>
-            <a:ext cx="1504950" cy="1710170"/>
-            <a:chOff x="1514475" y="8429625"/>
-            <a:chExt cx="1504950" cy="1710170"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="직사각형 42"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1514475" y="8429625"/>
-              <a:ext cx="1504950" cy="1710170"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-                <a:t>미션내용 </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            </a:p>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-                <a:t>보상</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="직사각형 43"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1914525" y="8486775"/>
-              <a:ext cx="695325" cy="342900"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-                <a:t>미션 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>이름</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="직사각형 44"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3924299" y="6765074"/>
-            <a:ext cx="3609975" cy="476250"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-              <a:t>미션 선택</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>88536</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:rowOff>134472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>627529</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>9416</xdr:rowOff>
+      <xdr:rowOff>126207</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="47" name="직선 연결선 46"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="43" idx="3"/>
+          <a:stCxn id="127" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10846183" y="7250206"/>
-          <a:ext cx="2589670" cy="1791151"/>
+          <a:off x="10506075" y="7144872"/>
+          <a:ext cx="2684929" cy="1877685"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2041,1022 +1473,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="직사각형 90"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1533526" y="21993225"/>
-          <a:ext cx="2009774" cy="2552700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="직사각형 91"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1924051" y="22126575"/>
-          <a:ext cx="1190624" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>미션 이름</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="직사각형 92"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1600201" y="22793325"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>미션 아이콘</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="직사각형 93"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2209800" y="22793325"/>
-          <a:ext cx="1247775" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>미션 이름</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>미션 내용</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="직사각형 94"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1600201" y="23650575"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>보상 아이콘</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="직사각형 95"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2209800" y="23650575"/>
-          <a:ext cx="1247775" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>보상 이름</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>보상 내용</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="97" name="그룹 96"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1724024" y="22621874"/>
-          <a:ext cx="1714501" cy="638176"/>
-          <a:chOff x="6991349" y="12696824"/>
-          <a:chExt cx="1447801" cy="638176"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="98" name="직사각형 97"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7143750" y="12830175"/>
-            <a:ext cx="1295400" cy="504825"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="99" name="타원 98"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6991349" y="12696824"/>
-            <a:ext cx="361951" cy="352426"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1"/>
-              <a:t>1</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="100" name="그룹 99"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1390649" y="23231474"/>
-          <a:ext cx="847726" cy="895351"/>
-          <a:chOff x="6991349" y="12696824"/>
-          <a:chExt cx="847726" cy="895351"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="직사각형 100"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7143750" y="12830175"/>
-            <a:ext cx="695325" cy="762000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="타원 101"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6991349" y="12696824"/>
-            <a:ext cx="361951" cy="352426"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1"/>
-              <a:t>2</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="103" name="그룹 102"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2085974" y="23250524"/>
-          <a:ext cx="1676401" cy="895351"/>
-          <a:chOff x="6991349" y="12696824"/>
-          <a:chExt cx="1409701" cy="895351"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="104" name="직사각형 103"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7143750" y="12830175"/>
-            <a:ext cx="1257300" cy="762000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="105" name="타원 104"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6991349" y="12696824"/>
-            <a:ext cx="361951" cy="352426"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1"/>
-              <a:t>3</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="106" name="그룹 105"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1400174" y="24155399"/>
-          <a:ext cx="828676" cy="828676"/>
-          <a:chOff x="6991349" y="12696824"/>
-          <a:chExt cx="828676" cy="828676"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="107" name="직사각형 106"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7143750" y="12830175"/>
-            <a:ext cx="676275" cy="695325"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="108" name="타원 107"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6991349" y="12696824"/>
-            <a:ext cx="361951" cy="352426"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1"/>
-              <a:t>4</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="109" name="그룹 108"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2057399" y="24145874"/>
-          <a:ext cx="1714501" cy="857251"/>
-          <a:chOff x="6991349" y="12696824"/>
-          <a:chExt cx="1447801" cy="857251"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="110" name="직사각형 109"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7143750" y="12830175"/>
-            <a:ext cx="1295400" cy="723900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="111" name="타원 110"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6991349" y="12696824"/>
-            <a:ext cx="361951" cy="352426"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1"/>
-              <a:t>5</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>672352</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -3179,167 +1595,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>742951</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180977</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="77" name="그룹 76"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1104901" y="22450425"/>
-          <a:ext cx="2809876" cy="2876550"/>
-          <a:chOff x="6870699" y="12687394"/>
-          <a:chExt cx="2372784" cy="2847881"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="78" name="직사각형 77"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7143750" y="12830175"/>
-            <a:ext cx="2099733" cy="2705100"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="79" name="타원 78"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6870699" y="12687394"/>
-            <a:ext cx="313689" cy="352426"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1"/>
-              <a:t>6</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>8</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>131163</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="그림 79"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9763124" y="1190626"/>
-          <a:ext cx="2419359" cy="874112"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3862,8 +2117,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>88045</xdr:rowOff>
     </xdr:to>
@@ -3890,6 +2145,812 @@
         <a:xfrm>
           <a:off x="9458324" y="13401675"/>
           <a:ext cx="5305426" cy="1916845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11730</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="119" name="그룹 118"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1866900" y="676275"/>
+          <a:ext cx="8639175" cy="5040930"/>
+          <a:chOff x="1633537" y="908535"/>
+          <a:chExt cx="8924925" cy="5040930"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="120" name="그림 119"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1633537" y="908535"/>
+            <a:ext cx="8924925" cy="5040930"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="122" name="직사각형 121"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3790690" y="1543916"/>
+            <a:ext cx="4810126" cy="361949"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+              <a:t>미션 상황 표시</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="123" name="그림 122"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8633951" y="2266690"/>
+            <a:ext cx="1924511" cy="695324"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2679</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="직선 연결선 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8791575" y="1533526"/>
+          <a:ext cx="4773706" cy="1869578"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="126" name="그룹 125"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1895475" y="6600825"/>
+          <a:ext cx="8610600" cy="4843463"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="12192000" cy="6858000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="127" name="그림 126"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="12192000" cy="6858000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="128" name="직사각형 127"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3682766" y="443377"/>
+            <a:ext cx="4826468" cy="607671"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="68000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>    미션 선택</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="129" name="직사각형 128"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1886030" y="2155878"/>
+            <a:ext cx="2172786" cy="3190562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="52000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>미션내용 </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>보상</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="130" name="직사각형 129"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2181732" y="2043911"/>
+            <a:ext cx="1581382" cy="494015"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="dk1">
+              <a:alpha val="79000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>미션 이름</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>384728</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="159" name="그림 158"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="22593300"/>
+          <a:ext cx="2013503" cy="2914650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4339,8 +3400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4354,6 +3415,8 @@
     <col min="7" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="9.25" customWidth="1"/>
     <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="20.25" x14ac:dyDescent="0.3">
@@ -4381,9 +3444,9 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E5" s="12"/>
@@ -4397,9 +3460,9 @@
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="13"/>
-      <c r="R5" s="14"/>
+      <c r="R5" s="13"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E6" s="12"/>
@@ -4413,9 +3476,9 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="14"/>
+      <c r="R6" s="13"/>
       <c r="U6" t="s">
         <v>8</v>
       </c>
@@ -4432,9 +3495,9 @@
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="14"/>
+      <c r="R7" s="13"/>
       <c r="U7" t="s">
         <v>9</v>
       </c>
@@ -4451,9 +3514,9 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="14"/>
+      <c r="R8" s="13"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E9" s="12"/>
@@ -4467,9 +3530,9 @@
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="13"/>
-      <c r="R9" s="14"/>
+      <c r="R9" s="13"/>
       <c r="U9" s="7" t="s">
         <v>11</v>
       </c>
@@ -4486,9 +3549,9 @@
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
+      <c r="R10" s="13"/>
       <c r="U10" t="s">
         <v>10</v>
       </c>
@@ -4505,9 +3568,9 @@
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="13"/>
-      <c r="R11" s="14"/>
+      <c r="R11" s="13"/>
       <c r="U11" t="s">
         <v>12</v>
       </c>
@@ -4524,9 +3587,9 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
+      <c r="R12" s="13"/>
       <c r="U12" t="s">
         <v>13</v>
       </c>
@@ -4543,9 +3606,9 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="13"/>
-      <c r="R13" s="14"/>
+      <c r="R13" s="13"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E14" s="12"/>
@@ -4559,9 +3622,9 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
+      <c r="R14" s="13"/>
       <c r="U14" s="7" t="s">
         <v>18</v>
       </c>
@@ -4578,9 +3641,9 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="13"/>
-      <c r="R15" s="14"/>
+      <c r="R15" s="13"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E16" s="12"/>
@@ -4594,9 +3657,9 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="13"/>
-      <c r="R16" s="14"/>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E17" s="12"/>
@@ -4610,9 +3673,9 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
+      <c r="R17" s="13"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E18" s="12"/>
@@ -4626,9 +3689,9 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
+      <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
-      <c r="R18" s="14"/>
+      <c r="R18" s="13"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
@@ -4645,9 +3708,9 @@
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
+      <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
-      <c r="R19" s="14"/>
+      <c r="R19" s="13"/>
       <c r="U19" t="s">
         <v>61</v>
       </c>
@@ -4664,9 +3727,9 @@
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
+      <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
+      <c r="R20" s="13"/>
       <c r="U20" t="s">
         <v>62</v>
       </c>
@@ -4683,9 +3746,9 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
+      <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
+      <c r="R21" s="13"/>
       <c r="U21" s="21" t="s">
         <v>37</v>
       </c>
@@ -4702,9 +3765,9 @@
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
+      <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
-      <c r="R22" s="14"/>
+      <c r="R22" s="13"/>
       <c r="U22" s="21" t="s">
         <v>58</v>
       </c>
@@ -4721,9 +3784,9 @@
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
+      <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
+      <c r="R23" s="13"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E24" s="12"/>
@@ -4737,9 +3800,9 @@
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
+      <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
-      <c r="R24" s="14"/>
+      <c r="R24" s="13"/>
       <c r="U24" s="7" t="s">
         <v>11</v>
       </c>
@@ -4756,9 +3819,9 @@
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
+      <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
-      <c r="R25" s="14"/>
+      <c r="R25" s="13"/>
       <c r="U25" t="s">
         <v>16</v>
       </c>
@@ -4775,9 +3838,9 @@
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
+      <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
-      <c r="R26" s="14"/>
+      <c r="R26" s="13"/>
       <c r="U26" t="s">
         <v>34</v>
       </c>
@@ -4794,9 +3857,9 @@
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
       <c r="U27" t="s">
         <v>36</v>
       </c>
@@ -4819,8 +3882,8 @@
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="11"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="13"/>
     </row>
     <row r="33" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E33" s="12"/>
@@ -4835,8 +3898,8 @@
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
       <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="14"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="13"/>
     </row>
     <row r="34" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E34" s="12"/>
@@ -4851,8 +3914,8 @@
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="14"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="13"/>
       <c r="U34" s="7" t="s">
         <v>20</v>
       </c>
@@ -4870,8 +3933,8 @@
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="14"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="13"/>
       <c r="U35" t="s">
         <v>21</v>
       </c>
@@ -4889,8 +3952,8 @@
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="14"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="13"/>
       <c r="U36" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +3971,8 @@
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="14"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="13"/>
       <c r="U37" t="s">
         <v>22</v>
       </c>
@@ -4927,8 +3990,8 @@
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="14"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="13"/>
     </row>
     <row r="39" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E39" s="12"/>
@@ -4943,8 +4006,8 @@
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="14"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="13"/>
       <c r="U39" s="7" t="s">
         <v>11</v>
       </c>
@@ -4962,8 +4025,8 @@
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
       <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="14"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="13"/>
       <c r="U40" t="s">
         <v>23</v>
       </c>
@@ -4981,8 +4044,8 @@
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
       <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="14"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="13"/>
       <c r="U41" t="s">
         <v>24</v>
       </c>
@@ -5000,8 +4063,8 @@
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
       <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="14"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="13"/>
     </row>
     <row r="43" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E43" s="12"/>
@@ -5016,8 +4079,8 @@
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
       <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="14"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="13"/>
     </row>
     <row r="44" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E44" s="12"/>
@@ -5032,8 +4095,8 @@
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
       <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="14"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="13"/>
     </row>
     <row r="45" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E45" s="12"/>
@@ -5048,8 +4111,8 @@
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="14"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="13"/>
     </row>
     <row r="46" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E46" s="12"/>
@@ -5064,8 +4127,8 @@
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="14"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="13"/>
     </row>
     <row r="47" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E47" s="12"/>
@@ -5080,8 +4143,8 @@
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
       <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="14"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="13"/>
     </row>
     <row r="48" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E48" s="12"/>
@@ -5096,8 +4159,8 @@
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="14"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="13"/>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E49" s="12"/>
@@ -5112,8 +4175,8 @@
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
       <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="14"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="13"/>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E50" s="12"/>
@@ -5128,8 +4191,8 @@
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
       <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="14"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="13"/>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E51" s="12"/>
@@ -5144,8 +4207,8 @@
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
       <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="14"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="13"/>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E52" s="12"/>
@@ -5160,8 +4223,8 @@
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
       <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="14"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="13"/>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E53" s="12"/>
@@ -5176,8 +4239,8 @@
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
       <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="14"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="13"/>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E54" s="15"/>
@@ -5192,8 +4255,8 @@
       <c r="N54" s="16"/>
       <c r="O54" s="16"/>
       <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="17"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="13"/>
     </row>
     <row r="58" spans="2:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
@@ -5212,13 +4275,13 @@
       <c r="O60" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="P60" s="29" t="s">
+      <c r="P60" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
       <c r="U60" s="24" t="s">
         <v>66</v>
       </c>
@@ -5250,20 +4313,20 @@
       <c r="U62" s="6"/>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="29"/>
+      <c r="D67" s="28"/>
       <c r="E67" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="29" t="s">
+      <c r="F67" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
       <c r="K67" s="19" t="s">
         <v>69</v>
       </c>
@@ -5357,28 +4420,28 @@
       </c>
     </row>
     <row r="81" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C81" s="28" t="s">
+      <c r="C81" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="29"/>
+      <c r="D81" s="28"/>
       <c r="E81" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F81" s="29" t="s">
+      <c r="F81" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
       <c r="K81" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="L81" s="29" t="s">
+      <c r="L81" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="29"/>
-      <c r="N81" s="29"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
     </row>
     <row r="82" spans="3:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="27">
@@ -5410,20 +4473,20 @@
       </c>
     </row>
     <row r="101" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C101" s="28" t="s">
+      <c r="C101" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D101" s="29"/>
+      <c r="D101" s="28"/>
       <c r="E101" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F101" s="29" t="s">
+      <c r="F101" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="29"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
       <c r="K101" s="22" t="s">
         <v>69</v>
       </c>
@@ -5477,20 +4540,20 @@
       </c>
     </row>
     <row r="121" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C121" s="28" t="s">
+      <c r="C121" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D121" s="29"/>
+      <c r="D121" s="28"/>
       <c r="E121" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F121" s="29" t="s">
+      <c r="F121" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G121" s="29"/>
-      <c r="H121" s="29"/>
-      <c r="I121" s="29"/>
-      <c r="J121" s="29"/>
+      <c r="G121" s="28"/>
+      <c r="H121" s="28"/>
+      <c r="I121" s="28"/>
+      <c r="J121" s="28"/>
       <c r="K121" s="22" t="s">
         <v>69</v>
       </c>
@@ -5620,6 +4683,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="F124:J124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="F126:J126"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="F121:J121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="F122:J122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="F123:J123"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="F102:J102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="F103:J103"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:J71"/>
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="F127:J127"/>
     <mergeCell ref="L81:N81"/>
@@ -5636,29 +4722,6 @@
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="F70:J70"/>
     <mergeCell ref="C81:D81"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="F102:J102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="F103:J103"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="F121:J121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="F122:J122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="F123:J123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="F124:J124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="F126:J126"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/UI 시안/미션 UI 기획서.xlsx
+++ b/Document/UI 시안/미션 UI 기획서.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -67,31 +67,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 섬멸: 제한시간, 전체 몬스터 수, 처치된 몬스터 수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>표시가 필요한 정보</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 방어: 현재, 남은 웨이브 수, 남은 몬스터 수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 생존: 남은 시간표시</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  - </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>미션 내용과 진행도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 섬멸: 미션 시작, 미션 완료</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -177,10 +161,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 방어: 웨이브 시작, 현재 웨이브,웨이브 종료</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> </t>
     </r>
@@ -199,9 +179,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 생존: 생존 시작, 남은 시간[예 남은 시간 2분], 미션 완료</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - 가운데 출력하여 유저에게 확실히 알리고 페이드아웃으로 사라지게 함</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -420,6 +397,18 @@
   </si>
   <si>
     <t>현재 적용된 미션의 이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 미션창</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 달성하지 않아도 되는 미션을 표시하는 UI창</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -703,10 +692,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -733,6 +722,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>194926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="그림 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866901" y="676276"/>
+          <a:ext cx="8648700" cy="4871700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -752,7 +785,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -771,16 +804,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>8</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>38070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>195263</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -791,8 +824,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10810883" y="714345"/>
-          <a:ext cx="2733667" cy="1624043"/>
+          <a:off x="10487025" y="714345"/>
+          <a:ext cx="2752725" cy="1209705"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -836,7 +869,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -856,14 +889,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>58831</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>71718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>449356</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:colOff>496981</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>143190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -874,15 +907,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13503088" y="3097306"/>
-          <a:ext cx="1805268" cy="710208"/>
+          <a:off x="13308106" y="3748368"/>
+          <a:ext cx="1809750" cy="700122"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1025,7 +1058,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2047874" y="16087724"/>
+          <a:off x="2047874" y="15944849"/>
           <a:ext cx="3590926" cy="590551"/>
           <a:chOff x="6991349" y="12696824"/>
           <a:chExt cx="3152776" cy="590551"/>
@@ -1142,7 +1175,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1485900" y="18478500"/>
+          <a:off x="1485900" y="18335625"/>
           <a:ext cx="5581650" cy="2469402"/>
           <a:chOff x="1866900" y="6600825"/>
           <a:chExt cx="7705725" cy="3762375"/>
@@ -1257,7 +1290,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1295399" y="18402299"/>
+          <a:off x="1295399" y="18259424"/>
           <a:ext cx="5753101" cy="2543176"/>
           <a:chOff x="6915149" y="12753974"/>
           <a:chExt cx="5172076" cy="2543176"/>
@@ -1374,7 +1407,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2666999" y="18430874"/>
+          <a:off x="2666999" y="18287999"/>
           <a:ext cx="2943226" cy="466726"/>
           <a:chOff x="6991349" y="12696824"/>
           <a:chExt cx="2505076" cy="466726"/>
@@ -1471,132 +1504,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>672352</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>347381</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="직사각형 112"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13480676" y="2185147"/>
-          <a:ext cx="3092823" cy="448235"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:alpha val="64000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>프로토 이후</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>672352</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>246530</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="직사각형 113"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13480676" y="5345206"/>
-          <a:ext cx="3675530" cy="448235"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:alpha val="64000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>프로토 이후</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1618,7 +1525,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1661,7 +1568,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3084978" y="12160623"/>
+          <a:off x="3084978" y="12017748"/>
           <a:ext cx="3963522" cy="1669676"/>
           <a:chOff x="2438399" y="12744449"/>
           <a:chExt cx="3963522" cy="1669678"/>
@@ -1778,7 +1685,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4085103" y="12322541"/>
+          <a:off x="4085103" y="12179666"/>
           <a:ext cx="1972798" cy="564777"/>
           <a:chOff x="2438399" y="12744449"/>
           <a:chExt cx="1972798" cy="564778"/>
@@ -1895,7 +1802,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4218453" y="12789266"/>
+          <a:off x="4218453" y="12646391"/>
           <a:ext cx="1696572" cy="564777"/>
           <a:chOff x="2438399" y="12744449"/>
           <a:chExt cx="1696572" cy="564778"/>
@@ -2012,7 +1919,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4447053" y="13255985"/>
+          <a:off x="4447053" y="13113110"/>
           <a:ext cx="1201272" cy="450484"/>
           <a:chOff x="2438399" y="12744449"/>
           <a:chExt cx="1201272" cy="450485"/>
@@ -2130,7 +2037,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2155,238 +2062,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>11730</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="119" name="그룹 118"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1866900" y="676275"/>
-          <a:ext cx="8639175" cy="5040930"/>
-          <a:chOff x="1633537" y="908535"/>
-          <a:chExt cx="8924925" cy="5040930"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="120" name="그림 119"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1633537" y="908535"/>
-            <a:ext cx="8924925" cy="5040930"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="122" name="직사각형 121"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3790690" y="1543916"/>
-            <a:ext cx="4810126" cy="361949"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
-              <a:t>미션 상황 표시</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="123" name="그림 122"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8633951" y="2266690"/>
-            <a:ext cx="1924511" cy="695324"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>58831</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>2679</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2398,8 +2082,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8791575" y="1533526"/>
-          <a:ext cx="4773706" cy="1869578"/>
+          <a:off x="6143625" y="1990725"/>
+          <a:ext cx="7164481" cy="2107704"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2442,7 +2126,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1895475" y="6600825"/>
+          <a:off x="1895475" y="6457950"/>
           <a:ext cx="8610600" cy="4843463"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="12192000" cy="6858000"/>
@@ -3275,10 +2959,10 @@
         <v>43664</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3400,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3424,12 +3108,12 @@
         <v>7</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E3" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
@@ -3502,7 +3186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -3534,7 +3218,7 @@
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
       <c r="U9" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
@@ -3553,7 +3237,7 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="U10" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
@@ -3572,7 +3256,7 @@
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="U11" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
@@ -3590,9 +3274,6 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
-      <c r="U12" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E13" s="12"/>
@@ -3625,9 +3306,6 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
-      <c r="U14" s="7" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E15" s="12"/>
@@ -3692,10 +3370,13 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
+      <c r="U18" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
@@ -3711,9 +3392,6 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
-      <c r="U19" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E20" s="12"/>
@@ -3730,9 +3408,6 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
-      <c r="U20" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E21" s="12"/>
@@ -3749,9 +3424,6 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
-      <c r="U21" s="21" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E22" s="12"/>
@@ -3768,9 +3440,6 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
-      <c r="U22" s="21" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E23" s="12"/>
@@ -3787,6 +3456,9 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
+      <c r="U23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E24" s="12"/>
@@ -3803,8 +3475,8 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
-      <c r="U24" s="7" t="s">
-        <v>11</v>
+      <c r="U24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
@@ -3822,8 +3494,8 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
-      <c r="U25" t="s">
-        <v>16</v>
+      <c r="U25" s="21" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
@@ -3841,8 +3513,8 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
-      <c r="U26" t="s">
-        <v>34</v>
+      <c r="U26" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
@@ -3860,13 +3532,10 @@
       <c r="P27" s="17"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
-      <c r="U27" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="30" spans="2:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
@@ -3917,7 +3586,7 @@
       <c r="Q34" s="12"/>
       <c r="R34" s="13"/>
       <c r="U34" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="5:21" x14ac:dyDescent="0.3">
@@ -3936,7 +3605,7 @@
       <c r="Q35" s="12"/>
       <c r="R35" s="13"/>
       <c r="U35" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="5:21" x14ac:dyDescent="0.3">
@@ -3955,7 +3624,7 @@
       <c r="Q36" s="12"/>
       <c r="R36" s="13"/>
       <c r="U36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="5:21" x14ac:dyDescent="0.3">
@@ -3974,7 +3643,7 @@
       <c r="Q37" s="12"/>
       <c r="R37" s="13"/>
       <c r="U37" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="5:21" x14ac:dyDescent="0.3">
@@ -4009,7 +3678,7 @@
       <c r="Q39" s="12"/>
       <c r="R39" s="13"/>
       <c r="U39" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="5:21" x14ac:dyDescent="0.3">
@@ -4028,7 +3697,7 @@
       <c r="Q40" s="12"/>
       <c r="R40" s="13"/>
       <c r="U40" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="5:21" x14ac:dyDescent="0.3">
@@ -4047,7 +3716,7 @@
       <c r="Q41" s="12"/>
       <c r="R41" s="13"/>
       <c r="U41" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="5:21" x14ac:dyDescent="0.3">
@@ -4260,38 +3929,38 @@
     </row>
     <row r="58" spans="2:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O59" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O60" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="P60" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="28"/>
+        <v>58</v>
+      </c>
+      <c r="P60" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
       <c r="U60" s="24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O61" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P61" s="27" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Q61" s="27"/>
       <c r="R61" s="27"/>
@@ -4301,10 +3970,10 @@
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O62" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="P62" s="27" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Q62" s="27"/>
       <c r="R62" s="27"/>
@@ -4313,25 +3982,25 @@
       <c r="U62" s="6"/>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C67" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" s="28"/>
+      <c r="C67" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="29"/>
       <c r="E67" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F67" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
+        <v>24</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
       <c r="K67" s="19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="3:12" x14ac:dyDescent="0.3">
@@ -4340,17 +4009,17 @@
       </c>
       <c r="D68" s="27"/>
       <c r="E68" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
       <c r="J68" s="27"/>
       <c r="K68" s="18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L68" s="6"/>
     </row>
@@ -4360,17 +4029,17 @@
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
       <c r="J69" s="27"/>
       <c r="K69" s="18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L69" s="6"/>
     </row>
@@ -4380,17 +4049,17 @@
       </c>
       <c r="D70" s="27"/>
       <c r="E70" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
       <c r="J70" s="27"/>
       <c r="K70" s="18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L70" s="6"/>
     </row>
@@ -4400,48 +4069,48 @@
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F71" s="27" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
       <c r="J71" s="27"/>
       <c r="K71" s="26" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L71" s="6"/>
     </row>
     <row r="75" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C75" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C81" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D81" s="28"/>
+      <c r="C81" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="29"/>
       <c r="E81" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F81" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
       <c r="K81" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="L81" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L81" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="29"/>
     </row>
     <row r="82" spans="3:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="27">
@@ -4449,49 +4118,49 @@
       </c>
       <c r="D82" s="27"/>
       <c r="E82" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
       <c r="J82" s="27"/>
       <c r="K82" s="18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L82" s="27" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M82" s="27"/>
       <c r="N82" s="27"/>
     </row>
     <row r="86" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C101" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" s="29"/>
+      <c r="E101" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L101" s="20" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C101" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D101" s="28"/>
-      <c r="E101" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F101" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
-      <c r="K101" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="L101" s="20" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="102" spans="3:12" x14ac:dyDescent="0.3">
@@ -4500,17 +4169,17 @@
       </c>
       <c r="D102" s="27"/>
       <c r="E102" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F102" s="27" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
       <c r="J102" s="27"/>
       <c r="K102" s="18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L102" s="18"/>
     </row>
@@ -4520,45 +4189,45 @@
       </c>
       <c r="D103" s="27"/>
       <c r="E103" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F103" s="27" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
       <c r="J103" s="27"/>
       <c r="K103" s="18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L103" s="18"/>
     </row>
     <row r="106" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C106" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C121" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D121" s="28"/>
+      <c r="C121" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D121" s="29"/>
       <c r="E121" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F121" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G121" s="28"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="28"/>
-      <c r="J121" s="28"/>
+        <v>41</v>
+      </c>
+      <c r="F121" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
       <c r="K121" s="22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L121" s="20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="3:12" x14ac:dyDescent="0.3">
@@ -4567,17 +4236,17 @@
       </c>
       <c r="D122" s="27"/>
       <c r="E122" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F122" s="27" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
       <c r="J122" s="27"/>
       <c r="K122" s="18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L122" s="18"/>
     </row>
@@ -4587,17 +4256,17 @@
       </c>
       <c r="D123" s="27"/>
       <c r="E123" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F123" s="27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
       <c r="J123" s="27"/>
       <c r="K123" s="18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L123" s="18"/>
     </row>
@@ -4607,17 +4276,17 @@
       </c>
       <c r="D124" s="27"/>
       <c r="E124" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F124" s="27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
       <c r="J124" s="27"/>
       <c r="K124" s="18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L124" s="18"/>
     </row>
@@ -4627,17 +4296,17 @@
       </c>
       <c r="D125" s="27"/>
       <c r="E125" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F125" s="27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
       <c r="J125" s="27"/>
       <c r="K125" s="18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L125" s="18"/>
     </row>
@@ -4647,17 +4316,17 @@
       </c>
       <c r="D126" s="27"/>
       <c r="E126" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F126" s="27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
       <c r="J126" s="27"/>
       <c r="K126" s="18" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L126" s="18"/>
     </row>
@@ -4667,45 +4336,22 @@
       </c>
       <c r="D127" s="27"/>
       <c r="E127" s="25" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F127" s="27" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
       <c r="J127" s="27"/>
       <c r="K127" s="25" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L127" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="F124:J124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="F126:J126"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="F121:J121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="F122:J122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="F123:J123"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="F102:J102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="F103:J103"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:J71"/>
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="F127:J127"/>
     <mergeCell ref="L81:N81"/>
@@ -4722,6 +4368,29 @@
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="F70:J70"/>
     <mergeCell ref="C81:D81"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="F102:J102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="F103:J103"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="F121:J121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="F122:J122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="F123:J123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="F124:J124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="F126:J126"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/UI 시안/미션 UI 기획서.xlsx
+++ b/Document/UI 시안/미션 UI 기획서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\UI 시안\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\UI 시안\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -408,7 +408,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - </t>
+    <t xml:space="preserve">  - 강제되지 않는 미션을 표시해주고 진행 방법과 진행도를 표시함.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 상시 표시되고 간소화를 사용시 아이콘만 출력함</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -601,13 +609,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,14 +737,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,6 +789,50 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
+      <xdr:colOff>987408</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>144352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>198785</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>88389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="그림 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2850995" y="14017722"/>
+          <a:ext cx="3228442" cy="979363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -741,7 +851,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -754,8 +864,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1866901" y="676276"/>
-          <a:ext cx="8648700" cy="4871700"/>
+          <a:off x="1873113" y="670892"/>
+          <a:ext cx="8647043" cy="4816621"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -785,7 +895,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -869,7 +979,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -907,7 +1017,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -975,13 +1085,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>962026</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1042,13 +1152,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1058,8 +1168,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2047874" y="15944849"/>
-          <a:ext cx="3590926" cy="590551"/>
+          <a:off x="2054086" y="17826658"/>
+          <a:ext cx="3579744" cy="585581"/>
           <a:chOff x="6991349" y="12696824"/>
           <a:chExt cx="3152776" cy="590551"/>
         </a:xfrm>
@@ -1159,13 +1269,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>2427</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1175,8 +1285,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1485900" y="18335625"/>
-          <a:ext cx="5581650" cy="2469402"/>
+          <a:off x="1490455" y="20199212"/>
+          <a:ext cx="5573368" cy="2439585"/>
           <a:chOff x="1866900" y="6600825"/>
           <a:chExt cx="7705725" cy="3762375"/>
         </a:xfrm>
@@ -1274,13 +1384,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>933449</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1290,8 +1400,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1295399" y="18259424"/>
-          <a:ext cx="5753101" cy="2543176"/>
+          <a:off x="1297884" y="20125496"/>
+          <a:ext cx="5746889" cy="2510874"/>
           <a:chOff x="6915149" y="12753974"/>
           <a:chExt cx="5172076" cy="2543176"/>
         </a:xfrm>
@@ -1391,13 +1501,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>809624</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>209549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1407,8 +1517,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2666999" y="18287999"/>
-          <a:ext cx="2943226" cy="466726"/>
+          <a:off x="2673211" y="20154071"/>
+          <a:ext cx="2932044" cy="459271"/>
           <a:chOff x="6991349" y="12696824"/>
           <a:chExt cx="2505076" cy="466726"/>
         </a:xfrm>
@@ -1506,16 +1616,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>440897</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>117875</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>56736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>13972</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>576883</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>47102</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1525,7 +1635,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1538,8 +1648,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3393647" y="12477750"/>
-          <a:ext cx="3597703" cy="1299847"/>
+          <a:off x="10247505" y="13673345"/>
+          <a:ext cx="3589835" cy="1282453"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1550,16 +1660,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>132228</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>121023</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>712011</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>68741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>240196</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>165656</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1568,10 +1678,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3084978" y="12017748"/>
-          <a:ext cx="3963522" cy="1669676"/>
+          <a:off x="2575598" y="13685350"/>
+          <a:ext cx="3545250" cy="1389002"/>
           <a:chOff x="2438399" y="12744449"/>
-          <a:chExt cx="3963522" cy="1669678"/>
+          <a:chExt cx="3552301" cy="1274207"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1581,8 +1691,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2657474" y="12934948"/>
-            <a:ext cx="3744447" cy="1479179"/>
+            <a:off x="2690670" y="12980538"/>
+            <a:ext cx="3300030" cy="1038118"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1667,16 +1777,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>351303</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>25766</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>864825</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>100313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>171443</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>107681</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1685,10 +1795,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4085103" y="12179666"/>
-          <a:ext cx="1972798" cy="564777"/>
+          <a:off x="2728412" y="13973683"/>
+          <a:ext cx="1031893" cy="835628"/>
           <a:chOff x="2438399" y="12744449"/>
-          <a:chExt cx="1972798" cy="564778"/>
+          <a:chExt cx="1035807" cy="843048"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1698,8 +1808,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2657475" y="12934949"/>
-            <a:ext cx="1753722" cy="374278"/>
+            <a:off x="2657476" y="12934949"/>
+            <a:ext cx="816730" cy="652548"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1784,16 +1894,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>484653</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>73391</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>650306</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>189347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>9518</xdr:rowOff>
+      <xdr:colOff>207064</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>75779</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1802,10 +1912,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4218453" y="12646391"/>
-          <a:ext cx="1696572" cy="564777"/>
+          <a:off x="3607197" y="13805956"/>
+          <a:ext cx="2480519" cy="557323"/>
           <a:chOff x="2438399" y="12744449"/>
-          <a:chExt cx="1696572" cy="564778"/>
+          <a:chExt cx="2491467" cy="564778"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1815,8 +1925,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2657475" y="12934949"/>
-            <a:ext cx="1477496" cy="374278"/>
+            <a:off x="2657474" y="12934949"/>
+            <a:ext cx="2272392" cy="374278"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1903,13 +2013,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>713253</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>121010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>152394</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1919,8 +2029,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4447053" y="13113110"/>
-          <a:ext cx="1201272" cy="450484"/>
+          <a:off x="4448710" y="14822640"/>
+          <a:ext cx="1194645" cy="445515"/>
           <a:chOff x="2438399" y="12744449"/>
           <a:chExt cx="1201272" cy="450485"/>
         </a:xfrm>
@@ -2016,50 +2126,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>88045</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="133" name="그림 132"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9458324" y="13401675"/>
-          <a:ext cx="5305426" cy="1916845"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -2126,8 +2192,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1895475" y="6457950"/>
-          <a:ext cx="8610600" cy="4843463"/>
+          <a:off x="1901687" y="6387134"/>
+          <a:ext cx="8608943" cy="4786313"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="12192000" cy="6858000"/>
         </a:xfrm>
@@ -2140,7 +2206,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2603,13 +2669,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>384728</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2620,7 +2686,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3082,10 +3148,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U127"/>
+  <dimension ref="B2:U136"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3217,8 +3283,8 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
-      <c r="U9" s="7" t="s">
-        <v>86</v>
+      <c r="U9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
@@ -3236,8 +3302,8 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
-      <c r="U10" t="s">
-        <v>87</v>
+      <c r="U10" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
@@ -3256,7 +3322,7 @@
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="U11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
@@ -3274,6 +3340,9 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
+      <c r="U12" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E13" s="12"/>
@@ -3290,6 +3359,9 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
+      <c r="U13" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E14" s="12"/>
@@ -3831,7 +3903,7 @@
       <c r="Q48" s="12"/>
       <c r="R48" s="13"/>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E49" s="12"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
@@ -3847,7 +3919,7 @@
       <c r="Q49" s="12"/>
       <c r="R49" s="13"/>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E50" s="12"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
@@ -3863,7 +3935,7 @@
       <c r="Q50" s="12"/>
       <c r="R50" s="13"/>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E51" s="12"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
@@ -3879,7 +3951,7 @@
       <c r="Q51" s="12"/>
       <c r="R51" s="13"/>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E52" s="12"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
@@ -3895,7 +3967,7 @@
       <c r="Q52" s="12"/>
       <c r="R52" s="13"/>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E53" s="12"/>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
@@ -3911,7 +3983,7 @@
       <c r="Q53" s="12"/>
       <c r="R53" s="13"/>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
@@ -3927,470 +3999,500 @@
       <c r="Q54" s="12"/>
       <c r="R54" s="13"/>
     </row>
-    <row r="58" spans="2:21" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:18" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="O59" t="s">
+    <row r="59" spans="2:18" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B61" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B62" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B63" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="2:18" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B64" s="8"/>
+    </row>
+    <row r="65" spans="2:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66" spans="2:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B66" s="8"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
         <v>22</v>
       </c>
-      <c r="O60" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P60" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
-      <c r="U60" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="O61" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="P61" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="27"/>
-      <c r="S61" s="27"/>
-      <c r="T61" s="27"/>
-      <c r="U61" s="6"/>
-    </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="O62" s="6" t="s">
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C75" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="29"/>
+      <c r="E75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C76" s="28">
+        <v>1</v>
+      </c>
+      <c r="D76" s="28"/>
+      <c r="E76" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F76" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="P62" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="6"/>
-    </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C67" s="28" t="s">
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C77" s="28">
+        <v>2</v>
+      </c>
+      <c r="D77" s="28"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C78" s="28">
+        <v>3</v>
+      </c>
+      <c r="D78" s="28"/>
+      <c r="E78" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F78" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C79" s="28">
+        <v>4</v>
+      </c>
+      <c r="D79" s="28"/>
+      <c r="E79" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C80" s="28">
+        <v>5</v>
+      </c>
+      <c r="D80" s="28"/>
+      <c r="E80" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F80" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="L80" s="6"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C84" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C90" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="29"/>
-      <c r="E67" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F67" s="29" t="s">
+      <c r="D90" s="29"/>
+      <c r="E90" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="19" t="s">
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L67" s="3" t="s">
+      <c r="L90" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
+    </row>
+    <row r="91" spans="3:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="28">
+        <v>1</v>
+      </c>
+      <c r="D91" s="28"/>
+      <c r="E91" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="L91" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M91" s="28"/>
+      <c r="N91" s="28"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C110" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D110" s="29"/>
+      <c r="E110" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F110" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L110" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C111" s="28">
+        <v>1</v>
+      </c>
+      <c r="D111" s="28"/>
+      <c r="E111" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F111" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G111" s="28"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="L111" s="18"/>
+    </row>
+    <row r="112" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C112" s="28">
+        <v>2</v>
+      </c>
+      <c r="D112" s="28"/>
+      <c r="E112" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F112" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G112" s="28"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="28"/>
+      <c r="K112" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L112" s="18"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C130" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130" s="29"/>
+      <c r="E130" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F130" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="29"/>
+      <c r="J130" s="29"/>
+      <c r="K130" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L130" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C68" s="27">
+    <row r="131" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C131" s="28">
         <v>1</v>
       </c>
-      <c r="D68" s="27"/>
-      <c r="E68" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F68" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="18" t="s">
+      <c r="D131" s="28"/>
+      <c r="E131" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F131" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G131" s="28"/>
+      <c r="H131" s="28"/>
+      <c r="I131" s="28"/>
+      <c r="J131" s="28"/>
+      <c r="K131" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L131" s="18"/>
+    </row>
+    <row r="132" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C132" s="28">
+        <v>2</v>
+      </c>
+      <c r="D132" s="28"/>
+      <c r="E132" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F132" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G132" s="28"/>
+      <c r="H132" s="28"/>
+      <c r="I132" s="28"/>
+      <c r="J132" s="28"/>
+      <c r="K132" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="L132" s="18"/>
+    </row>
+    <row r="133" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C133" s="28">
+        <v>3</v>
+      </c>
+      <c r="D133" s="28"/>
+      <c r="E133" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F133" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G133" s="28"/>
+      <c r="H133" s="28"/>
+      <c r="I133" s="28"/>
+      <c r="J133" s="28"/>
+      <c r="K133" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L133" s="18"/>
+    </row>
+    <row r="134" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C134" s="28">
+        <v>4</v>
+      </c>
+      <c r="D134" s="28"/>
+      <c r="E134" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F134" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G134" s="28"/>
+      <c r="H134" s="28"/>
+      <c r="I134" s="28"/>
+      <c r="J134" s="28"/>
+      <c r="K134" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L68" s="6"/>
-    </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C69" s="27">
-        <v>2</v>
-      </c>
-      <c r="D69" s="27"/>
-      <c r="E69" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="L69" s="6"/>
-    </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C70" s="27">
-        <v>3</v>
-      </c>
-      <c r="D70" s="27"/>
-      <c r="E70" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F70" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="L70" s="6"/>
-    </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C71" s="27">
-        <v>4</v>
-      </c>
-      <c r="D71" s="27"/>
-      <c r="E71" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F71" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L71" s="6"/>
-    </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C75" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C81" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" s="29"/>
-      <c r="E81" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F81" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="L81" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="29"/>
-      <c r="N81" s="29"/>
-    </row>
-    <row r="82" spans="3:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="27">
-        <v>1</v>
-      </c>
-      <c r="D82" s="27"/>
-      <c r="E82" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F82" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="L82" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="M82" s="27"/>
-      <c r="N82" s="27"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C86" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C101" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D101" s="29"/>
-      <c r="E101" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F101" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="L101" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C102" s="27">
-        <v>1</v>
-      </c>
-      <c r="D102" s="27"/>
-      <c r="E102" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F102" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="L102" s="18"/>
-    </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C103" s="27">
-        <v>2</v>
-      </c>
-      <c r="D103" s="27"/>
-      <c r="E103" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F103" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="L103" s="18"/>
-    </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C106" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="121" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C121" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D121" s="29"/>
-      <c r="E121" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F121" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G121" s="29"/>
-      <c r="H121" s="29"/>
-      <c r="I121" s="29"/>
-      <c r="J121" s="29"/>
-      <c r="K121" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="L121" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C122" s="27">
-        <v>1</v>
-      </c>
-      <c r="D122" s="27"/>
-      <c r="E122" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F122" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="27"/>
-      <c r="J122" s="27"/>
-      <c r="K122" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L122" s="18"/>
-    </row>
-    <row r="123" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C123" s="27">
-        <v>2</v>
-      </c>
-      <c r="D123" s="27"/>
-      <c r="E123" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F123" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="27"/>
-      <c r="K123" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="L123" s="18"/>
-    </row>
-    <row r="124" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C124" s="27">
-        <v>3</v>
-      </c>
-      <c r="D124" s="27"/>
-      <c r="E124" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F124" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="27"/>
-      <c r="K124" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="L124" s="18"/>
-    </row>
-    <row r="125" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C125" s="27">
-        <v>4</v>
-      </c>
-      <c r="D125" s="27"/>
-      <c r="E125" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F125" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="27"/>
-      <c r="K125" s="18" t="s">
+      <c r="L134" s="18"/>
+    </row>
+    <row r="135" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C135" s="28">
+        <v>5</v>
+      </c>
+      <c r="D135" s="28"/>
+      <c r="E135" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F135" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G135" s="28"/>
+      <c r="H135" s="28"/>
+      <c r="I135" s="28"/>
+      <c r="J135" s="28"/>
+      <c r="K135" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="L135" s="18"/>
+    </row>
+    <row r="136" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C136" s="28">
+        <v>6</v>
+      </c>
+      <c r="D136" s="28"/>
+      <c r="E136" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F136" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G136" s="28"/>
+      <c r="H136" s="28"/>
+      <c r="I136" s="28"/>
+      <c r="J136" s="28"/>
+      <c r="K136" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="L125" s="18"/>
-    </row>
-    <row r="126" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C126" s="27">
-        <v>5</v>
-      </c>
-      <c r="D126" s="27"/>
-      <c r="E126" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F126" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
-      <c r="J126" s="27"/>
-      <c r="K126" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="L126" s="18"/>
-    </row>
-    <row r="127" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C127" s="27">
-        <v>6</v>
-      </c>
-      <c r="D127" s="27"/>
-      <c r="E127" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F127" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="27"/>
-      <c r="J127" s="27"/>
-      <c r="K127" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="L127" s="6"/>
+      <c r="L136" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="P60:T60"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="F102:J102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="F103:J103"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="F121:J121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="F122:J122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="F123:J123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="F124:J124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="F126:J126"/>
+  <mergeCells count="41">
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="F133:J133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="F134:J134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="F135:J135"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="F130:J130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="F131:J131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="F132:J132"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="F110:J110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="F111:J111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="F112:J112"/>
+    <mergeCell ref="F90:J90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="F91:J91"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="F136:J136"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
